--- a/doc/APIV1.0/APP.xlsx
+++ b/doc/APIV1.0/APP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHIVE" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="209">
   <si>
     <t xml:space="preserve">ACTION</t>
   </si>
@@ -616,22 +616,22 @@
     <t xml:space="preserve">学生姓名</t>
   </si>
   <si>
+    <t xml:space="preserve">SubjectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目名称</t>
+  </si>
+  <si>
     <t xml:space="preserve">上传一个成绩</t>
   </si>
   <si>
-    <t xml:space="preserve">SubjectName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目名称</t>
+    <t xml:space="preserve">SubjectCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目分类</t>
   </si>
   <si>
     <t xml:space="preserve">/APP/Mark/CreateNew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubjectCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">项目分类</t>
   </si>
   <si>
     <t xml:space="preserve">StrMark</t>
@@ -966,23 +966,23 @@
   </sheetPr>
   <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1660,7 +1660,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1676,22 +1676,22 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C11:C13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2235,7 +2235,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2251,22 +2251,22 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C11:C13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2824,7 +2824,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2840,22 +2840,22 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3375,7 +3375,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3391,22 +3391,22 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3906,7 +3906,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3922,22 +3922,22 @@
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C11:C13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.4587628865979"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="14.319587628866"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4603,7 +4603,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4618,23 +4618,23 @@
   </sheetPr>
   <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="1" sqref="C11:C13 C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.90721649484536"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7268041237113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.77319587628866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5463917525773"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0463917525773"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.3659793814433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.1855670103093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.0463917525773"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0927835051546"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="37.3711340206186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5088,13 +5088,19 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="16"/>
       <c r="I20" s="7" t="s">
         <v>188</v>
       </c>
@@ -5107,11 +5113,13 @@
     </row>
     <row r="21" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="C21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="7" t="s">
         <v>194</v>
       </c>
@@ -5126,64 +5134,54 @@
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>15</v>
+      <c r="C24" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>202</v>
@@ -5197,19 +5195,21 @@
     </row>
     <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
-      <c r="C25" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="16"/>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5217,7 +5217,7 @@
     <row r="26" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="6" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
@@ -5226,7 +5226,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G26" s="16"/>
       <c r="I26" s="7"/>
@@ -5236,7 +5236,7 @@
     <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
@@ -5245,7 +5245,7 @@
         <v>21</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="G27" s="16"/>
       <c r="I27" s="7"/>
@@ -5254,17 +5254,17 @@
     </row>
     <row r="28" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
-      <c r="C28" s="16" t="s">
-        <v>171</v>
+      <c r="C28" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="G28" s="16"/>
       <c r="I28" s="7"/>
@@ -5274,16 +5274,16 @@
     <row r="29" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="G29" s="16"/>
       <c r="I29" s="7"/>
@@ -5292,10 +5292,18 @@
     </row>
     <row r="30" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="16"/>
+      <c r="C30" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="G30" s="16"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -5314,7 +5322,7 @@
     </row>
     <row r="32" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="8"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="16"/>
@@ -5325,13 +5333,11 @@
     </row>
     <row r="33" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="8"/>
-      <c r="C33" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -5340,29 +5346,36 @@
       <c r="B34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="C34" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="C35" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -5448,16 +5461,16 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
